--- a/notebooks/SPTAN1/input/SPTAN1_DEE5_individuals.xlsx
+++ b/notebooks/SPTAN1/input/SPTAN1_DEE5_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinp/GIT/phenopacket-store/notebooks/SPTAN1/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/SPTAN1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1600863-7A6E-494A-9591-AAEB895C6649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C7CAA2-CD69-C543-B338-CF0F112CDEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1020" yWindow="2420" windowWidth="34560" windowHeight="20460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="7840" windowWidth="36720" windowHeight="12340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="179">
   <si>
     <t>PMID</t>
   </si>
@@ -545,13 +545,25 @@
   </si>
   <si>
     <t>Spasticity;Babinski sign;Strabismus;Upper limb muscle weakness;Lower limb muscle weakness</t>
+  </si>
+  <si>
+    <t>deceased</t>
+  </si>
+  <si>
+    <t>yes/no/na</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,6 +586,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -634,11 +654,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -942,24 +962,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ24"/>
+  <dimension ref="A1:AR24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ23" sqref="AQ23"/>
+      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="57" customWidth="1"/>
     <col min="4" max="8" width="8.83203125" customWidth="1"/>
     <col min="9" max="9" width="15.1640625" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" customWidth="1"/>
-    <col min="11" max="16" width="8.83203125" customWidth="1"/>
-    <col min="24" max="24" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.6640625" customWidth="1"/>
+    <col min="11" max="17" width="8.83203125" customWidth="1"/>
+    <col min="25" max="25" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1002,95 +1023,98 @@
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AO1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AP1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1134,94 +1158,97 @@
         <v>33</v>
       </c>
       <c r="O2" t="s">
+        <v>176</v>
+      </c>
+      <c r="P2" t="s">
         <v>34</v>
       </c>
-      <c r="P2" t="s">
-        <v>35</v>
-      </c>
       <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
         <v>36</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>96</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>83</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>85</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>98</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>144</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>148</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>72</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>38</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>40</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>41</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>42</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>74</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>43</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>44</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>45</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>46</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>47</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>48</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>49</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>70</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>100</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>102</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>146</v>
       </c>
-      <c r="AQ2" s="5" t="s">
+      <c r="AR2" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -1262,16 +1289,16 @@
         <v>58</v>
       </c>
       <c r="O3" t="s">
+        <v>177</v>
+      </c>
+      <c r="P3" t="s">
         <v>57</v>
       </c>
-      <c r="P3" t="s">
-        <v>35</v>
-      </c>
       <c r="Q3" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="R3" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="S3" t="s">
         <v>87</v>
@@ -1280,10 +1307,10 @@
         <v>87</v>
       </c>
       <c r="U3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" t="s">
-        <v>65</v>
+        <v>87</v>
+      </c>
+      <c r="V3" t="s">
+        <v>35</v>
       </c>
       <c r="Y3" t="s">
         <v>65</v>
@@ -1292,15 +1319,15 @@
         <v>65</v>
       </c>
       <c r="AA3" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="AB3" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="AC3" t="s">
         <v>65</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AD3" t="s">
         <v>65</v>
       </c>
       <c r="AF3" t="s">
@@ -1309,20 +1336,23 @@
       <c r="AG3" t="s">
         <v>65</v>
       </c>
-      <c r="AI3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL3" t="s">
+      <c r="AH3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM3" t="s">
         <v>66</v>
       </c>
-      <c r="AM3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP3" t="s">
+      <c r="AN3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1363,16 +1393,16 @@
         <v>59</v>
       </c>
       <c r="O4" t="s">
+        <v>177</v>
+      </c>
+      <c r="P4" t="s">
         <v>60</v>
       </c>
-      <c r="P4" t="s">
-        <v>35</v>
-      </c>
       <c r="Q4" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="R4" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="S4" t="s">
         <v>87</v>
@@ -1381,27 +1411,27 @@
         <v>87</v>
       </c>
       <c r="U4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X4" t="s">
+        <v>87</v>
+      </c>
+      <c r="V4" t="s">
         <v>35</v>
       </c>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="Z4" t="s">
         <v>65</v>
       </c>
       <c r="AA4" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="AB4" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="AC4" t="s">
         <v>65</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AD4" t="s">
         <v>65</v>
       </c>
       <c r="AF4" t="s">
@@ -1410,17 +1440,20 @@
       <c r="AG4" t="s">
         <v>65</v>
       </c>
-      <c r="AI4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP4" t="s">
+      <c r="AH4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:43" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1458,54 +1491,57 @@
         <v>78</v>
       </c>
       <c r="O5" t="s">
+        <v>177</v>
+      </c>
+      <c r="P5" t="s">
         <v>60</v>
       </c>
-      <c r="P5" t="s">
-        <v>35</v>
-      </c>
       <c r="Q5" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="R5" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="S5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="T5" t="s">
         <v>86</v>
       </c>
       <c r="U5" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>65</v>
+        <v>86</v>
+      </c>
+      <c r="V5" t="s">
+        <v>35</v>
       </c>
       <c r="Z5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA5" t="s">
         <v>88</v>
       </c>
-      <c r="AA5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF5" t="s">
+      <c r="AB5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG5" t="s">
         <v>88</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP5" t="s">
+      <c r="AK5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
         <v>104</v>
@@ -1541,16 +1577,16 @@
         <v>132</v>
       </c>
       <c r="O6" t="s">
+        <v>177</v>
+      </c>
+      <c r="P6" t="s">
         <v>57</v>
       </c>
-      <c r="P6" t="s">
-        <v>35</v>
-      </c>
       <c r="Q6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="R6" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="S6" t="s">
         <v>87</v>
@@ -1559,19 +1595,19 @@
         <v>87</v>
       </c>
       <c r="U6" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="V6" t="s">
         <v>65</v>
       </c>
-      <c r="X6" t="s">
+      <c r="W6" t="s">
         <v>65</v>
       </c>
       <c r="Y6" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="Z6" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="AA6" t="s">
         <v>87</v>
@@ -1579,11 +1615,11 @@
       <c r="AB6" t="s">
         <v>87</v>
       </c>
-      <c r="AC6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>87</v>
+      <c r="AC6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="AE6" t="s">
         <v>87</v>
@@ -1619,15 +1655,18 @@
         <v>87</v>
       </c>
       <c r="AP6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
         <v>105</v>
@@ -1663,19 +1702,19 @@
         <v>59</v>
       </c>
       <c r="O7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P7" t="s">
         <v>57</v>
       </c>
-      <c r="P7" t="s">
-        <v>35</v>
-      </c>
       <c r="Q7" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="R7" t="s">
         <v>65</v>
       </c>
       <c r="S7" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="T7" t="s">
         <v>87</v>
@@ -1684,39 +1723,42 @@
         <v>87</v>
       </c>
       <c r="V7" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="W7" t="s">
         <v>65</v>
       </c>
       <c r="X7" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="Y7" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL7" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP7" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
         <v>106</v>
@@ -1752,16 +1794,16 @@
         <v>59</v>
       </c>
       <c r="O8" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" t="s">
         <v>57</v>
       </c>
-      <c r="P8" t="s">
-        <v>35</v>
-      </c>
       <c r="Q8" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="R8" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="S8" t="s">
         <v>87</v>
@@ -1770,45 +1812,48 @@
         <v>87</v>
       </c>
       <c r="U8" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="V8" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="W8" t="s">
         <v>87</v>
       </c>
       <c r="X8" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="Y8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>65</v>
+        <v>35</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>35</v>
       </c>
       <c r="AD8" t="s">
         <v>65</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO8" t="s">
+      <c r="AE8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
         <v>107</v>
@@ -1844,69 +1889,72 @@
         <v>59</v>
       </c>
       <c r="O9" t="s">
+        <v>177</v>
+      </c>
+      <c r="P9" t="s">
         <v>57</v>
       </c>
-      <c r="P9" t="s">
-        <v>35</v>
-      </c>
       <c r="Q9" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="R9" t="s">
         <v>65</v>
       </c>
       <c r="S9" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="T9" t="s">
         <v>87</v>
       </c>
       <c r="U9" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="V9" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="W9" t="s">
         <v>87</v>
       </c>
       <c r="X9" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="Y9" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="Z9" t="s">
         <v>65</v>
       </c>
       <c r="AA9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG9" t="s">
         <v>65</v>
       </c>
       <c r="AJ9" t="s">
         <v>65</v>
       </c>
-      <c r="AL9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO9" t="s">
+      <c r="AK9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
         <v>108</v>
@@ -1942,16 +1990,16 @@
         <v>137</v>
       </c>
       <c r="O10" t="s">
+        <v>178</v>
+      </c>
+      <c r="P10" t="s">
         <v>57</v>
       </c>
-      <c r="P10" t="s">
-        <v>35</v>
-      </c>
       <c r="Q10" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="R10" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="S10" t="s">
         <v>87</v>
@@ -1960,49 +2008,52 @@
         <v>87</v>
       </c>
       <c r="U10" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="V10" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="W10" t="s">
         <v>87</v>
       </c>
       <c r="X10" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="Y10" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="Z10" t="s">
         <v>65</v>
       </c>
       <c r="AA10" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>65</v>
+        <v>65</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>35</v>
       </c>
       <c r="AD10" t="s">
         <v>65</v>
       </c>
-      <c r="AF10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI10" t="s">
+      <c r="AE10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG10" t="s">
         <v>65</v>
       </c>
       <c r="AJ10" t="s">
         <v>65</v>
       </c>
-      <c r="AL10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO10" t="s">
+      <c r="AK10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>89</v>
       </c>
@@ -2043,46 +2094,46 @@
         <v>59</v>
       </c>
       <c r="O11" t="s">
+        <v>177</v>
+      </c>
+      <c r="P11" t="s">
         <v>57</v>
       </c>
-      <c r="P11" t="s">
-        <v>35</v>
-      </c>
       <c r="Q11" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="R11" t="s">
         <v>65</v>
       </c>
       <c r="S11" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="T11" t="s">
         <v>87</v>
       </c>
       <c r="U11" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="V11" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="W11" t="s">
         <v>87</v>
       </c>
       <c r="X11" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="Y11" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="Z11" t="s">
         <v>65</v>
       </c>
       <c r="AA11" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="AB11" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="AC11" t="s">
         <v>65</v>
@@ -2090,28 +2141,31 @@
       <c r="AD11" t="s">
         <v>65</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AE11" t="s">
         <v>65</v>
       </c>
       <c r="AJ11" t="s">
         <v>65</v>
       </c>
-      <c r="AL11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN11" t="s">
+      <c r="AK11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM11" t="s">
         <v>65</v>
       </c>
       <c r="AO11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
         <v>127</v>
@@ -2147,16 +2201,16 @@
         <v>59</v>
       </c>
       <c r="O12" t="s">
+        <v>177</v>
+      </c>
+      <c r="P12" t="s">
         <v>60</v>
       </c>
-      <c r="P12" t="s">
-        <v>35</v>
-      </c>
       <c r="Q12" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="R12" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="S12" t="s">
         <v>87</v>
@@ -2165,42 +2219,45 @@
         <v>87</v>
       </c>
       <c r="U12" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="V12" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="W12" t="s">
         <v>87</v>
       </c>
       <c r="X12" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG12" s="1" t="s">
         <v>65</v>
       </c>
       <c r="AJ12" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="AK12" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
         <v>109</v>
@@ -2236,69 +2293,72 @@
         <v>132</v>
       </c>
       <c r="O13" t="s">
+        <v>177</v>
+      </c>
+      <c r="P13" t="s">
         <v>57</v>
       </c>
-      <c r="P13" t="s">
-        <v>35</v>
-      </c>
       <c r="Q13" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="R13" t="s">
         <v>65</v>
       </c>
       <c r="S13" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="T13" t="s">
         <v>87</v>
       </c>
       <c r="U13" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="V13" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="W13" t="s">
         <v>87</v>
       </c>
       <c r="X13" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="Y13" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="Z13" t="s">
         <v>65</v>
       </c>
       <c r="AA13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>65</v>
+        <v>65</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>35</v>
       </c>
       <c r="AD13" t="s">
         <v>65</v>
       </c>
-      <c r="AF13" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI13" t="s">
+      <c r="AE13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG13" t="s">
         <v>65</v>
       </c>
       <c r="AJ13" t="s">
         <v>65</v>
       </c>
-      <c r="AO13" t="s">
+      <c r="AK13" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
         <v>110</v>
@@ -2334,16 +2394,16 @@
         <v>139</v>
       </c>
       <c r="O14" t="s">
+        <v>177</v>
+      </c>
+      <c r="P14" t="s">
         <v>60</v>
       </c>
-      <c r="P14" t="s">
-        <v>35</v>
-      </c>
       <c r="Q14" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="R14" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="S14" t="s">
         <v>87</v>
@@ -2352,54 +2412,57 @@
         <v>87</v>
       </c>
       <c r="U14" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="V14" t="s">
         <v>65</v>
       </c>
       <c r="W14" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="X14" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="Y14" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="Z14" t="s">
         <v>65</v>
       </c>
       <c r="AA14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>65</v>
+        <v>65</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>35</v>
       </c>
       <c r="AD14" t="s">
         <v>65</v>
       </c>
-      <c r="AF14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI14" t="s">
+      <c r="AE14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG14" t="s">
         <v>65</v>
       </c>
       <c r="AJ14" t="s">
         <v>65</v>
       </c>
-      <c r="AL14" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO14" t="s">
+      <c r="AK14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP14" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
         <v>111</v>
@@ -2435,16 +2498,16 @@
         <v>86</v>
       </c>
       <c r="O15" t="s">
+        <v>177</v>
+      </c>
+      <c r="P15" t="s">
         <v>57</v>
       </c>
-      <c r="P15" t="s">
-        <v>35</v>
-      </c>
       <c r="Q15" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="R15" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="S15" t="s">
         <v>87</v>
@@ -2453,7 +2516,7 @@
         <v>87</v>
       </c>
       <c r="U15" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="V15" t="s">
         <v>65</v>
@@ -2462,42 +2525,45 @@
         <v>65</v>
       </c>
       <c r="X15" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="Y15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>65</v>
+        <v>35</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>35</v>
       </c>
       <c r="AD15" t="s">
         <v>65</v>
       </c>
-      <c r="AF15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI15" t="s">
+      <c r="AE15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG15" t="s">
         <v>65</v>
       </c>
       <c r="AJ15" t="s">
         <v>65</v>
       </c>
-      <c r="AL15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO15" t="s">
+      <c r="AK15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP15" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
         <v>112</v>
@@ -2533,16 +2599,16 @@
         <v>141</v>
       </c>
       <c r="O16" t="s">
+        <v>178</v>
+      </c>
+      <c r="P16" t="s">
         <v>60</v>
       </c>
-      <c r="P16" t="s">
-        <v>35</v>
-      </c>
       <c r="Q16" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="R16" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="S16" t="s">
         <v>87</v>
@@ -2551,51 +2617,54 @@
         <v>87</v>
       </c>
       <c r="U16" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="V16" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="W16" t="s">
         <v>87</v>
       </c>
       <c r="X16" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="Y16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD16" t="s">
         <v>65</v>
       </c>
       <c r="AJ16" t="s">
         <v>65</v>
       </c>
-      <c r="AL16" t="s">
-        <v>65</v>
-      </c>
-      <c r="AN16" t="s">
+      <c r="AK16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM16" t="s">
         <v>65</v>
       </c>
       <c r="AO16" t="s">
         <v>65</v>
       </c>
-      <c r="AQ16" t="s">
+      <c r="AP16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR16" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
         <v>113</v>
@@ -2631,72 +2700,75 @@
         <v>142</v>
       </c>
       <c r="O17" t="s">
+        <v>178</v>
+      </c>
+      <c r="P17" t="s">
         <v>57</v>
       </c>
-      <c r="P17" t="s">
-        <v>35</v>
-      </c>
       <c r="Q17" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="R17" t="s">
         <v>65</v>
       </c>
       <c r="S17" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="T17" t="s">
         <v>87</v>
       </c>
       <c r="U17" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="V17" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="W17" t="s">
         <v>87</v>
       </c>
       <c r="X17" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="Y17" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="Z17" t="s">
         <v>65</v>
       </c>
       <c r="AA17" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>65</v>
+        <v>65</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>35</v>
       </c>
       <c r="AD17" t="s">
         <v>65</v>
       </c>
-      <c r="AF17" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI17" t="s">
+      <c r="AE17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG17" t="s">
         <v>65</v>
       </c>
       <c r="AJ17" t="s">
         <v>65</v>
       </c>
-      <c r="AL17" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO17" t="s">
+      <c r="AK17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
         <v>114</v>
@@ -2732,16 +2804,16 @@
         <v>139</v>
       </c>
       <c r="O18" t="s">
+        <v>177</v>
+      </c>
+      <c r="P18" t="s">
         <v>60</v>
       </c>
-      <c r="P18" t="s">
-        <v>35</v>
-      </c>
       <c r="Q18" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="R18" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="S18" t="s">
         <v>87</v>
@@ -2750,42 +2822,45 @@
         <v>87</v>
       </c>
       <c r="U18" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="V18" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="W18" t="s">
         <v>87</v>
       </c>
       <c r="X18" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="Y18" t="s">
         <v>65</v>
       </c>
-      <c r="AA18" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ18" t="s">
+      <c r="Z18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR18" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
         <v>115</v>
@@ -2821,61 +2896,64 @@
         <v>59</v>
       </c>
       <c r="O19" t="s">
+        <v>177</v>
+      </c>
+      <c r="P19" t="s">
         <v>60</v>
       </c>
-      <c r="P19" t="s">
-        <v>35</v>
-      </c>
       <c r="Q19" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="R19" t="s">
         <v>65</v>
       </c>
       <c r="S19" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="T19" t="s">
         <v>87</v>
       </c>
       <c r="U19" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="V19" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="W19" t="s">
         <v>87</v>
       </c>
       <c r="X19" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="Y19" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="Z19" t="s">
         <v>65</v>
       </c>
       <c r="AA19" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>65</v>
-      </c>
-      <c r="AO19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP19" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>152</v>
       </c>
@@ -2916,37 +2994,40 @@
         <v>166</v>
       </c>
       <c r="O20" t="s">
+        <v>177</v>
+      </c>
+      <c r="P20" t="s">
         <v>57</v>
       </c>
-      <c r="P20" t="s">
-        <v>35</v>
-      </c>
       <c r="Q20" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="R20" t="s">
-        <v>87</v>
-      </c>
-      <c r="T20" t="s">
+        <v>65</v>
+      </c>
+      <c r="S20" t="s">
+        <v>87</v>
+      </c>
+      <c r="U20" t="s">
         <v>135</v>
       </c>
-      <c r="X20" t="s">
-        <v>65</v>
-      </c>
       <c r="Y20" t="s">
         <v>65</v>
       </c>
-      <c r="AC20" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ20" t="s">
+      <c r="Z20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>87</v>
+      </c>
+      <c r="AR20" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>152</v>
       </c>
@@ -2987,34 +3068,37 @@
         <v>167</v>
       </c>
       <c r="O21" t="s">
+        <v>177</v>
+      </c>
+      <c r="P21" t="s">
         <v>60</v>
       </c>
-      <c r="P21" t="s">
-        <v>35</v>
-      </c>
       <c r="Q21" t="s">
+        <v>35</v>
+      </c>
+      <c r="R21" t="s">
         <v>94</v>
       </c>
-      <c r="R21" t="s">
-        <v>87</v>
-      </c>
-      <c r="X21" t="s">
-        <v>65</v>
+      <c r="S21" t="s">
+        <v>87</v>
       </c>
       <c r="Y21" t="s">
         <v>65</v>
       </c>
-      <c r="AC21" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ21" t="s">
+      <c r="Z21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR21" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -3055,34 +3139,37 @@
         <v>168</v>
       </c>
       <c r="O22" t="s">
+        <v>177</v>
+      </c>
+      <c r="P22" t="s">
         <v>57</v>
       </c>
-      <c r="P22" t="s">
-        <v>35</v>
-      </c>
       <c r="Q22" t="s">
+        <v>35</v>
+      </c>
+      <c r="R22" t="s">
         <v>94</v>
       </c>
-      <c r="R22" t="s">
-        <v>87</v>
-      </c>
-      <c r="X22" t="s">
-        <v>65</v>
+      <c r="S22" t="s">
+        <v>87</v>
       </c>
       <c r="Y22" t="s">
         <v>65</v>
       </c>
-      <c r="AC22" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ22" t="s">
+      <c r="Z22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR22" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>152</v>
       </c>
@@ -3123,37 +3210,40 @@
         <v>58</v>
       </c>
       <c r="O23" t="s">
+        <v>177</v>
+      </c>
+      <c r="P23" t="s">
         <v>57</v>
       </c>
-      <c r="P23" t="s">
-        <v>35</v>
-      </c>
       <c r="Q23" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="R23" t="s">
-        <v>87</v>
-      </c>
-      <c r="U23" t="s">
+        <v>65</v>
+      </c>
+      <c r="S23" t="s">
+        <v>87</v>
+      </c>
+      <c r="V23" t="s">
         <v>94</v>
       </c>
-      <c r="X23" t="s">
-        <v>65</v>
-      </c>
       <c r="Y23" t="s">
         <v>65</v>
       </c>
-      <c r="AC23" t="s">
-        <v>65</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>65</v>
-      </c>
-      <c r="AQ23" t="s">
+      <c r="Z23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>65</v>
+      </c>
+      <c r="AR23" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>152</v>
       </c>
@@ -3194,30 +3284,33 @@
         <v>169</v>
       </c>
       <c r="O24" t="s">
+        <v>177</v>
+      </c>
+      <c r="P24" t="s">
         <v>60</v>
       </c>
-      <c r="P24" t="s">
-        <v>35</v>
-      </c>
       <c r="Q24" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="R24" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="S24" t="s">
+        <v>87</v>
+      </c>
+      <c r="T24" t="s">
         <v>170</v>
       </c>
-      <c r="X24" t="s">
-        <v>35</v>
-      </c>
       <c r="Y24" t="s">
         <v>35</v>
       </c>
-      <c r="AC24" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL24" t="s">
+      <c r="Z24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM24" t="s">
         <v>65</v>
       </c>
     </row>
